--- a/Software/TensorFlow/nnalgtest.xlsx
+++ b/Software/TensorFlow/nnalgtest.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9012" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Changing time" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset and training algo verif" sheetId="1" r:id="rId1"/>
+    <sheet name="More samples" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>Bayesian Regularization (trainbr)</t>
   </si>
@@ -138,6 +140,72 @@
   </si>
   <si>
     <t>Promising results, just like traingd, but faster…</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>18min, EMC, 4/20, quiet environment</t>
+  </si>
+  <si>
+    <t>TOTAL Avg</t>
+  </si>
+  <si>
+    <t>3:47, max epoch</t>
+  </si>
+  <si>
+    <t>2:03, max epoch</t>
+  </si>
+  <si>
+    <t>1:34, max epoch</t>
+  </si>
+  <si>
+    <t>2:02, max epoch</t>
+  </si>
+  <si>
+    <t>2:16, max epoch</t>
+  </si>
+  <si>
+    <t>1:59, max epoch</t>
+  </si>
+  <si>
+    <t>2 test sessions, 2 tape sessions</t>
+  </si>
+  <si>
+    <t>left wire taped and untaped</t>
+  </si>
+  <si>
+    <t>2:07, max epochs</t>
+  </si>
+  <si>
+    <t>1:56, max epochs</t>
+  </si>
+  <si>
+    <t>42 min data, EMC, 4/20, quiet environment</t>
+  </si>
+  <si>
+    <t>lol no data b/c time and laziness</t>
+  </si>
+  <si>
+    <t>lol same</t>
+  </si>
+  <si>
+    <t>6 test sessions, 5 tape sessions</t>
+  </si>
+  <si>
+    <t>3 hr data, EMC, quiet environment</t>
+  </si>
+  <si>
+    <t>Parameters: 1 hidden layer, 10 nodes, 50k max epochs</t>
+  </si>
+  <si>
+    <t>Parameters: 3 hr Eric MC Dataset</t>
+  </si>
+  <si>
+    <t>Hidden Nodes</t>
+  </si>
+  <si>
+    <t>10 -&gt; 5</t>
   </si>
 </sst>
 </file>
@@ -148,7 +216,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +224,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,10 +266,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,19 +286,44 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,19 +636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="12" width="14.77734375" customWidth="1"/>
@@ -539,123 +659,123 @@
     <col min="23" max="24" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="S1" s="8" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="S1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="S3" s="8" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="S3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+    </row>
+    <row r="4" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -718,8 +838,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:31" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B5">
@@ -744,37 +864,37 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="O5" s="7" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="O5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="S5" s="7" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="S5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+    </row>
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
       <c r="B6">
         <v>2</v>
       </c>
@@ -797,27 +917,27 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+    </row>
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
       <c r="B7">
         <v>3</v>
       </c>
@@ -841,27 +961,27 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -870,7 +990,7 @@
         <v>32.233333333333334</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ref="D8:E8" si="0">AVERAGE(D5:D7)</f>
+        <f t="shared" ref="D8" si="0">AVERAGE(D5:D7)</f>
         <v>67.966666666666669</v>
       </c>
       <c r="G8" s="6">
@@ -881,44 +1001,44 @@
         <f>AVERAGE(H5:H7)</f>
         <v>53.133333333333333</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O9" s="8" t="s">
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="S9" s="8" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="S9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="W9" s="8" t="s">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="W9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B10">
@@ -980,15 +1100,15 @@
       <c r="Y10" s="4">
         <v>7.013888888888889E-2</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AB10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
       <c r="B11">
         <v>2</v>
       </c>
@@ -1048,13 +1168,13 @@
       <c r="Y11" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
       <c r="B12">
         <v>3</v>
       </c>
@@ -1114,18 +1234,18 @@
       <c r="Y12" s="4">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13:D13" si="1">AVERAGE(C10:C12)</f>
+        <f t="shared" ref="C13" si="1">AVERAGE(C10:C12)</f>
         <v>34.066666666666663</v>
       </c>
       <c r="D13" s="6">
@@ -1172,14 +1292,18 @@
         <f>AVERAGE(X10:X12)</f>
         <v>33.433333333333337</v>
       </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="Z13" s="6">
+        <f>AVERAGE(O13,K13,G13)</f>
+        <v>34.31111111111111</v>
+      </c>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:31" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B15">
@@ -1240,15 +1364,15 @@
       <c r="Y15" s="4">
         <v>0</v>
       </c>
-      <c r="AA15" s="7" t="s">
+      <c r="AB15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
       <c r="B16">
         <v>2</v>
       </c>
@@ -1307,13 +1431,13 @@
       <c r="Y16" s="4">
         <v>0</v>
       </c>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+    </row>
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
       <c r="B17">
         <v>3</v>
       </c>
@@ -1372,13 +1496,13 @@
       <c r="Y17" s="4">
         <v>0</v>
       </c>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+    </row>
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1430,14 +1554,14 @@
         <f>AVERAGE(X15:X17)</f>
         <v>33.466666666666669</v>
       </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-    </row>
-    <row r="19" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+    </row>
+    <row r="19" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B20">
@@ -1498,15 +1622,15 @@
       <c r="Y20" s="4">
         <v>0</v>
       </c>
-      <c r="AA20" s="7" t="s">
+      <c r="AB20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
       <c r="B21">
         <v>2</v>
       </c>
@@ -1565,13 +1689,13 @@
       <c r="Y21" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
       <c r="B22">
         <v>3</v>
       </c>
@@ -1630,13 +1754,13 @@
       <c r="Y22" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1688,23 +1812,27 @@
         <f>AVERAGE(X20:X22)</f>
         <v>34.333333333333336</v>
       </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="Z23" s="6">
+        <f>AVERAGE(O23,K23,G23)</f>
+        <v>37.699999999999996</v>
+      </c>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="G25">
         <v>37.700000000000003</v>
       </c>
@@ -1751,21 +1879,21 @@
       <c r="Y25" s="4">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="AA25" s="7" t="s">
+      <c r="AB25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="G26">
         <v>45.7</v>
       </c>
@@ -1812,19 +1940,19 @@
       <c r="Y26" s="4">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="G27">
         <v>31.5</v>
       </c>
@@ -1871,19 +1999,19 @@
       <c r="Y27" s="4">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="G28" s="6">
         <f>AVERAGE(G25:G27)</f>
         <v>38.300000000000004</v>
@@ -1924,23 +2052,27 @@
         <f>AVERAGE(X25:X27)</f>
         <v>35.666666666666664</v>
       </c>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="Z28" s="6">
+        <f>AVERAGE(O28,K28,G28)</f>
+        <v>37.44444444444445</v>
+      </c>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="G30">
         <v>37</v>
       </c>
@@ -1987,21 +2119,21 @@
       <c r="Y30" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AA30" s="7" t="s">
+      <c r="AB30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
       <c r="G31">
         <v>35.200000000000003</v>
       </c>
@@ -2048,19 +2180,19 @@
       <c r="Y31" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="G32">
         <v>30.2</v>
       </c>
@@ -2107,19 +2239,19 @@
       <c r="Y32" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
       <c r="G33" s="6">
         <f>AVERAGE(G30:G32)</f>
         <v>34.133333333333333</v>
@@ -2160,138 +2292,2990 @@
         <f>AVERAGE(X30:X32)</f>
         <v>35.533333333333331</v>
       </c>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z33" s="6">
+        <f>AVERAGE(O33,K33,G33)</f>
+        <v>35.122222222222227</v>
+      </c>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="6">
-        <f>AVERAGE(C13,C23,C8)</f>
-        <v>33.200000000000003</v>
+        <f>AVERAGE(C23,C13)</f>
+        <v>33.683333333333337</v>
       </c>
       <c r="D35" s="6">
-        <f>AVERAGE(D13,D23,D8)</f>
-        <v>46.9</v>
-      </c>
-      <c r="G35" s="6">
-        <f>AVERAGE(G28,G23,G8)</f>
-        <v>38.488888888888887</v>
+        <f>AVERAGE(D23,D13)</f>
+        <v>36.36666666666666</v>
+      </c>
+      <c r="G35" s="19">
+        <f>AVERAGE(G23,G28,G13)</f>
+        <v>38.266666666666673</v>
       </c>
       <c r="H35" s="6">
-        <f>AVERAGE(H28,H23,H8)</f>
-        <v>43.344444444444441</v>
-      </c>
-      <c r="K35" s="6">
-        <f>AVERAGE(K33,K23,K28)</f>
+        <f>AVERAGE(H23,H28,H13)</f>
+        <v>38.322222222222223</v>
+      </c>
+      <c r="K35" s="19">
+        <f>AVERAGE(K23,K28,K33)</f>
         <v>36.166666666666664</v>
       </c>
       <c r="L35" s="6">
-        <f>AVERAGE(L33,L23,L28)</f>
+        <f>AVERAGE(L23,L28,L33)</f>
         <v>38.94444444444445</v>
       </c>
-      <c r="O35" s="6">
-        <f>AVERAGE(O28,O23,O33)</f>
+      <c r="O35" s="19">
+        <f>AVERAGE(O23,O28,O33)</f>
         <v>36.44444444444445</v>
       </c>
       <c r="P35" s="6">
-        <f>AVERAGE(P8,P13,P18,P23,P28,P33)</f>
-        <v>35.466666666666669</v>
-      </c>
-      <c r="S35" s="6">
-        <f>AVERAGE(S28,S23,S13)</f>
+        <f>AVERAGE(P23,P28,P33)</f>
+        <v>36.711111111111109</v>
+      </c>
+      <c r="S35" s="18">
+        <f>AVERAGE(S28,S13,S23)</f>
         <v>33.966666666666669</v>
       </c>
       <c r="T35" s="6">
-        <f>AVERAGE(T28,T23,T13)</f>
+        <f>AVERAGE(T28,T13,T23)</f>
         <v>35.388888888888886</v>
       </c>
-      <c r="W35" s="6">
-        <f>AVERAGE(W33,W28,W23)</f>
+      <c r="W35" s="18">
+        <f>AVERAGE(W23,W28,W33)</f>
         <v>33.94444444444445</v>
       </c>
       <c r="X35" s="6">
-        <f>AVERAGE(X33,X28,X23)</f>
+        <f>AVERAGE(X23,X28,X33)</f>
         <v>35.177777777777777</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="G36" s="6"/>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f>_xlfn.STDEV.P(G10:G33)</f>
+        <v>4.760485502784614</v>
+      </c>
       <c r="H36" s="6"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f>_xlfn.STDEV.P(K10:K33)</f>
+        <v>2.6635273187594262</v>
+      </c>
+      <c r="O36">
+        <f>_xlfn.STDEV.P(O10:O33)</f>
+        <v>2.8045518556644859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AA20:AD23"/>
-    <mergeCell ref="AA25:AD28"/>
-    <mergeCell ref="AA30:AD33"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S5:U8"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="O5:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="K5:M8"/>
+    <mergeCell ref="A39:D41"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:E28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="C30:E33"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W5:Y8"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W9:Y9"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AA5:AD8"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W5:Y8"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="AA10:AD13"/>
-    <mergeCell ref="AA15:AD18"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K5:M8"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A39:D41"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:E28"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="C30:E33"/>
-    <mergeCell ref="O5:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="AB20:AE23"/>
+    <mergeCell ref="AB25:AE28"/>
+    <mergeCell ref="AB30:AE33"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S5:U8"/>
+    <mergeCell ref="AA5:AD8"/>
+    <mergeCell ref="AB10:AE13"/>
+    <mergeCell ref="AB15:AE18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" customWidth="1"/>
+    <col min="7" max="8" width="14.77734375" customWidth="1"/>
+    <col min="11" max="12" width="14.77734375" customWidth="1"/>
+    <col min="15" max="16" width="14.77734375" customWidth="1"/>
+    <col min="19" max="20" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:24" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D5" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="S5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H6" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H7" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D8" s="6">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>40.9</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>48.8</v>
+      </c>
+      <c r="H13" s="6">
+        <v>43.7</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D14" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>43.4</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <f>AVERAGE(C5:C14)</f>
+        <v>34.44</v>
+      </c>
+      <c r="D15" s="6">
+        <f>AVERAGE(D5:D14)</f>
+        <v>36.69</v>
+      </c>
+      <c r="G15" s="6">
+        <f>AVERAGE(G5:G14)</f>
+        <v>41.65</v>
+      </c>
+      <c r="H15" s="6">
+        <f>AVERAGE(H5:H14)</f>
+        <v>42.099999999999994</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+    </row>
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.P(C5:C14)</f>
+        <v>4.3492987940586794</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="H18" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="L18" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="O18" s="6">
+        <v>32</v>
+      </c>
+      <c r="P18" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="S18" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="T18" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>43.4</v>
+      </c>
+      <c r="K19" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="L19" s="6">
+        <v>40</v>
+      </c>
+      <c r="O19" s="6">
+        <v>32</v>
+      </c>
+      <c r="P19" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="S19" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="T19" s="6">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>43.4</v>
+      </c>
+      <c r="K20" s="6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L20" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="O20" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P20" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="S20" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="T20" s="6">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44.3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>44.6</v>
+      </c>
+      <c r="K21" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="L21" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="O21" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="S21" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="T21" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D22" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="H22" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="K22" s="6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L22" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O22" s="6">
+        <v>32</v>
+      </c>
+      <c r="P22" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="S22" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="T22" s="6">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D23" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H23" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="K23" s="6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L23" s="6">
+        <v>41.7</v>
+      </c>
+      <c r="O23" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="P23" s="6">
+        <v>35</v>
+      </c>
+      <c r="S23" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="T23" s="6">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>34</v>
+      </c>
+      <c r="D24" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="H24" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="K24" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="L24" s="6">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="O24" s="6">
+        <v>31.1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="S24" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="T24" s="6">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>34</v>
+      </c>
+      <c r="D25" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>42</v>
+      </c>
+      <c r="H25" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="K25" s="6">
+        <v>41.8</v>
+      </c>
+      <c r="L25" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="O25" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="P25" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="S25" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="T25" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>37</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="H26" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="K26" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L26" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="O26" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="P26" s="6">
+        <v>35</v>
+      </c>
+      <c r="S26" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="T26" s="6">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44.6</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K27" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="L27" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O27" s="6">
+        <v>30</v>
+      </c>
+      <c r="P27" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="S27" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="T27" s="6">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <f>AVERAGE(C18:C27)</f>
+        <v>33.65</v>
+      </c>
+      <c r="D28" s="6">
+        <f>AVERAGE(D18:D27)</f>
+        <v>37.71</v>
+      </c>
+      <c r="G28" s="6">
+        <f>AVERAGE(G18:G27)</f>
+        <v>40.559999999999995</v>
+      </c>
+      <c r="H28" s="6">
+        <f>AVERAGE(H18:H27)</f>
+        <v>41.68</v>
+      </c>
+      <c r="K28" s="6">
+        <f>AVERAGE(K18:K27)</f>
+        <v>39.839999999999996</v>
+      </c>
+      <c r="L28" s="6">
+        <f>AVERAGE(L18:L27)</f>
+        <v>40.15</v>
+      </c>
+      <c r="O28" s="6">
+        <f>AVERAGE(O18:O27)</f>
+        <v>33.1</v>
+      </c>
+      <c r="P28" s="6">
+        <f>AVERAGE(P18:P27)</f>
+        <v>34.65</v>
+      </c>
+      <c r="S28" s="6">
+        <f>AVERAGE(S18:S27)</f>
+        <v>33.86999999999999</v>
+      </c>
+      <c r="T28" s="6">
+        <f>AVERAGE(T18:T27)</f>
+        <v>34.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6">
+        <f>_xlfn.STDEV.P(C18:C27)</f>
+        <v>3.397719823646415</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D31" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H31" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="L31" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O31" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="P31" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="S31" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="T31" s="6">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42.5</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H32" s="6">
+        <v>45.1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="L32" s="6">
+        <v>44</v>
+      </c>
+      <c r="O32" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="P32" s="6">
+        <v>41</v>
+      </c>
+      <c r="S32" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="T32" s="6">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6">
+        <v>34</v>
+      </c>
+      <c r="D33" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="H33" s="6">
+        <v>56.3</v>
+      </c>
+      <c r="K33" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="L33" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="O33" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="P33" s="6">
+        <v>43</v>
+      </c>
+      <c r="S33" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="T33" s="6">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H34" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K34" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L34" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="O34" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="P34" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="S34" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="T34" s="6">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D35" s="6">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="H35" s="6">
+        <v>59.8</v>
+      </c>
+      <c r="K35" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="L35" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="O35" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="P35" s="6">
+        <v>39</v>
+      </c>
+      <c r="S35" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="T35" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="D36" s="6">
+        <v>53.6</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H36" s="6">
+        <v>54</v>
+      </c>
+      <c r="K36" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L36" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="O36" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P36" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="S36" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="T36" s="6">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D37" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H37" s="6">
+        <v>39</v>
+      </c>
+      <c r="K37" s="6">
+        <v>38.4</v>
+      </c>
+      <c r="L37" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="O37" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P37" s="6">
+        <v>37</v>
+      </c>
+      <c r="S37" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="T37" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D38" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>34</v>
+      </c>
+      <c r="H38" s="6">
+        <v>45.9</v>
+      </c>
+      <c r="K38" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="L38" s="6">
+        <v>42.7</v>
+      </c>
+      <c r="O38" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="P38" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="S38" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="T38" s="6">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="3">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="D39" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="H39" s="6">
+        <v>53</v>
+      </c>
+      <c r="K39" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L39" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="O39" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P39" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="S39" s="6">
+        <v>37</v>
+      </c>
+      <c r="T39" s="6">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="D40" s="6">
+        <v>41</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H40" s="6">
+        <v>45.1</v>
+      </c>
+      <c r="K40" s="6">
+        <v>37</v>
+      </c>
+      <c r="L40" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="O40" s="6">
+        <v>37</v>
+      </c>
+      <c r="P40" s="6">
+        <v>43.3</v>
+      </c>
+      <c r="S40" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="T40" s="6">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <f>AVERAGE(C31:C40)</f>
+        <v>35.699999999999996</v>
+      </c>
+      <c r="D41" s="6">
+        <f>AVERAGE(D31:D40)</f>
+        <v>41.209999999999994</v>
+      </c>
+      <c r="G41" s="6">
+        <f>AVERAGE(G31:G40)</f>
+        <v>37.350000000000009</v>
+      </c>
+      <c r="H41" s="6">
+        <f>AVERAGE(H31:H40)</f>
+        <v>47.45</v>
+      </c>
+      <c r="K41" s="6">
+        <f>AVERAGE(K31:K40)</f>
+        <v>36.410000000000004</v>
+      </c>
+      <c r="L41" s="6">
+        <f>AVERAGE(L31:L40)</f>
+        <v>40.589999999999996</v>
+      </c>
+      <c r="O41" s="6">
+        <f>AVERAGE(O31:O40)</f>
+        <v>34.649999999999991</v>
+      </c>
+      <c r="P41" s="6">
+        <f>AVERAGE(P31:P40)</f>
+        <v>39.14</v>
+      </c>
+      <c r="S41" s="6">
+        <f>AVERAGE(S31:S40)</f>
+        <v>33.629999999999995</v>
+      </c>
+      <c r="T41" s="6">
+        <f>AVERAGE(T31:T40)</f>
+        <v>34.680000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6">
+        <f>_xlfn.STDEV.P(C31:C40)</f>
+        <v>2.9099828178186895</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>34</v>
+      </c>
+      <c r="D44" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>37</v>
+      </c>
+      <c r="H44" s="6">
+        <v>47.4</v>
+      </c>
+      <c r="K44" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="L44" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="O44" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="P44" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="S44" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="T44" s="6">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="D45" s="6">
+        <v>42.5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="K45" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="L45" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O45" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="P45" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="S45" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="T45" s="6">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D46" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="H46" s="6">
+        <v>39</v>
+      </c>
+      <c r="K46" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="L46" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="O46" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="P46" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="S46" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="T46" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D47" s="6">
+        <v>40.9</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="H47" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K47" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="L47" s="6">
+        <v>38</v>
+      </c>
+      <c r="O47" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="P47" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="S47" s="6">
+        <v>32</v>
+      </c>
+      <c r="T47" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="H48" s="6">
+        <v>47</v>
+      </c>
+      <c r="K48" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="L48" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="O48" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="P48" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="S48" s="6">
+        <v>33</v>
+      </c>
+      <c r="T48" s="6">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H49" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="K49" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="L49" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="O49" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="P49" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="S49" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="T49" s="6">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D50" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H50" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="K50" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="L50" s="6">
+        <v>42</v>
+      </c>
+      <c r="O50" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="P50" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S50" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="T50" s="6">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D51" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>47</v>
+      </c>
+      <c r="K51" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="L51" s="6">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O51" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P51" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="S51" s="6">
+        <v>31.1</v>
+      </c>
+      <c r="T51" s="6">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="3">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D52" s="6">
+        <v>38.5</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H52" s="6">
+        <v>39</v>
+      </c>
+      <c r="K52" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="L52" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="O52" s="6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P52" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="S52" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="T52" s="6">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="D53" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="H53" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="K53" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="L53" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="O53" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="P53" s="6">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="S53" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="T53" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6">
+        <f>AVERAGE(C44:C53)</f>
+        <v>36.61</v>
+      </c>
+      <c r="D54" s="6">
+        <f>AVERAGE(D44:D53)</f>
+        <v>39.029999999999994</v>
+      </c>
+      <c r="G54" s="6">
+        <f>AVERAGE(G44:G53)</f>
+        <v>37.589999999999996</v>
+      </c>
+      <c r="H54" s="6">
+        <f>AVERAGE(H44:H53)</f>
+        <v>41.66</v>
+      </c>
+      <c r="K54" s="6">
+        <f>AVERAGE(K44:K53)</f>
+        <v>38.57</v>
+      </c>
+      <c r="L54" s="6">
+        <f>AVERAGE(L44:L53)</f>
+        <v>38.559999999999995</v>
+      </c>
+      <c r="O54" s="6">
+        <f>AVERAGE(O44:O53)</f>
+        <v>32.239999999999995</v>
+      </c>
+      <c r="P54" s="6">
+        <f>AVERAGE(P44:P53)</f>
+        <v>33.83</v>
+      </c>
+      <c r="S54" s="6">
+        <f>AVERAGE(S44:S53)</f>
+        <v>33.5</v>
+      </c>
+      <c r="T54" s="6">
+        <f>AVERAGE(T44:T53)</f>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="6">
+        <f>_xlfn.STDEV.P(C44:C53)</f>
+        <v>3.4378627081371351</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="G55" s="6">
+        <f>_xlfn.STDEV.P(G44:G53)</f>
+        <v>2.71346641770264</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="19">
+        <f>AVERAGE(C54,C41,C28)</f>
+        <v>35.32</v>
+      </c>
+      <c r="D57" s="6">
+        <f>AVERAGE(D54,D41,D28)</f>
+        <v>39.316666666666663</v>
+      </c>
+      <c r="G57" s="19">
+        <f>AVERAGE(G54,G41,G28)</f>
+        <v>38.5</v>
+      </c>
+      <c r="H57" s="6">
+        <f>AVERAGE(H54,H41,H28)</f>
+        <v>43.596666666666664</v>
+      </c>
+      <c r="K57" s="19">
+        <f>AVERAGE(K54,K41,K28)</f>
+        <v>38.273333333333333</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="O57" s="18">
+        <f>AVERAGE(O54,O41,O28)</f>
+        <v>33.329999999999991</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="S57" s="18">
+        <f>AVERAGE(S54,S41,S28)</f>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="V5:X15"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K5:M15"/>
+    <mergeCell ref="O5:Q15"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="S5:U15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" customWidth="1"/>
+    <col min="6" max="7" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6">
+        <v>31.4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G4" s="6">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D5" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F5" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D6" s="6">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>32.9</v>
+      </c>
+      <c r="G9" s="6">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G12" s="6">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>33.86999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <f>AVERAGE(D3:D12)</f>
+        <v>34.57</v>
+      </c>
+      <c r="F13" s="6">
+        <f>AVERAGE(F3:F12)</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <f>AVERAGE(G3:G12)</f>
+        <v>34.230000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D16" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F16" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G16" s="6">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F17" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G17" s="6">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="F18" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G18" s="6">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F19" s="6">
+        <v>34</v>
+      </c>
+      <c r="G19" s="6">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D20" s="6">
+        <v>35</v>
+      </c>
+      <c r="F20" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G20" s="6">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D21" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="F21" s="6">
+        <v>31.4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D22" s="6">
+        <v>34</v>
+      </c>
+      <c r="F22" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G22" s="6">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D23" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F23" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G24" s="6">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="D25" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>33</v>
+      </c>
+      <c r="G25" s="6">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <f>AVERAGE(C16:C25)</f>
+        <v>33.629999999999995</v>
+      </c>
+      <c r="D26" s="6">
+        <f>AVERAGE(D16:D25)</f>
+        <v>34.680000000000007</v>
+      </c>
+      <c r="F26" s="6">
+        <f>AVERAGE(F16:F25)</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G26" s="6">
+        <f>AVERAGE(G16:G25)</f>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F29" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="G29" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F30" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="G30" s="6">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D31" s="6">
+        <v>33</v>
+      </c>
+      <c r="F31" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="G31" s="6">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6">
+        <v>33</v>
+      </c>
+      <c r="F32" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="G32" s="6">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>33</v>
+      </c>
+      <c r="D33" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="F33" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="G33" s="6">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F34" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G34" s="6">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F35" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="G35" s="6">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6">
+        <v>31.1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="G36" s="6">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="3">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="D37" s="6">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F37" s="6">
+        <v>34</v>
+      </c>
+      <c r="G37" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D38" s="6">
+        <v>35</v>
+      </c>
+      <c r="F38" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G38" s="6">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <f>AVERAGE(C29:C38)</f>
+        <v>33.5</v>
+      </c>
+      <c r="D39" s="6">
+        <f>AVERAGE(D29:D38)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F39" s="6">
+        <f>AVERAGE(F29:F38)</f>
+        <v>33.659999999999997</v>
+      </c>
+      <c r="G39" s="6">
+        <f>AVERAGE(G29:G38)</f>
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="6">
+        <f>AVERAGE(C39,C26,C13)</f>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="F42" s="6">
+        <f>AVERAGE(F39,F26,F13)</f>
+        <v>33.386666666666663</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A44:D46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Software/TensorFlow/nnalgtest.xlsx
+++ b/Software/TensorFlow/nnalgtest.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9012" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9012" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset and training algo verif" sheetId="1" r:id="rId1"/>
     <sheet name="More samples" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Data423" sheetId="6" r:id="rId3"/>
+    <sheet name="hidden nodes 1" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="hidden nodes 2" sheetId="5" r:id="rId5"/>
+    <sheet name="hidden nodes 3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
   <si>
     <t>Bayesian Regularization (trainbr)</t>
   </si>
@@ -145,9 +148,6 @@
     <t>Std Dev</t>
   </si>
   <si>
-    <t>18min, EMC, 4/20, quiet environment</t>
-  </si>
-  <si>
     <t>TOTAL Avg</t>
   </si>
   <si>
@@ -181,9 +181,6 @@
     <t>1:56, max epochs</t>
   </si>
   <si>
-    <t>42 min data, EMC, 4/20, quiet environment</t>
-  </si>
-  <si>
     <t>lol no data b/c time and laziness</t>
   </si>
   <si>
@@ -206,6 +203,57 @@
   </si>
   <si>
     <t>10 -&gt; 5</t>
+  </si>
+  <si>
+    <t>Parameters: 1 hr v1 dataset</t>
+  </si>
+  <si>
+    <t>1 hr data, EMC, 4/21, quiet environment</t>
+  </si>
+  <si>
+    <t>42 min data, EMC, 4/21, quiet environment</t>
+  </si>
+  <si>
+    <t>18min, EMC, 4/21, quiet environment</t>
+  </si>
+  <si>
+    <t>18 min data, EMC, 4/23</t>
+  </si>
+  <si>
+    <t>18min, EMC, 4/23</t>
+  </si>
+  <si>
+    <t>36min, EMC, 4/23</t>
+  </si>
+  <si>
+    <t>pt1</t>
+  </si>
+  <si>
+    <t>pt2</t>
+  </si>
+  <si>
+    <t>combo of pt1 and pt2</t>
+  </si>
+  <si>
+    <t>Parameters: 1 hidden layer, 10 nodes, new training input data (more features)</t>
+  </si>
+  <si>
+    <t>Summary data</t>
+  </si>
+  <si>
+    <t>Average Testing Accuracy</t>
+  </si>
+  <si>
+    <t>1hr, EMC, 4/23</t>
+  </si>
+  <si>
+    <t>80 hidden nodes</t>
+  </si>
+  <si>
+    <t>75-50</t>
+  </si>
+  <si>
+    <t>50-25</t>
   </si>
 </sst>
 </file>
@@ -271,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,15 +349,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -318,8 +371,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -337,6 +394,2006 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hidden Nodes vs Classification</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (scaled conjugate gradient and 1hrv1 test set)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hidden nodes 2'!$A$22:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hidden nodes 2'!$B$22:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.820000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-663F-491F-B69E-0005FAAD9F85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="312611512"/>
+        <c:axId val="312610528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="312611512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312610528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312610528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312611512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Classification Performance vs Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Hidden Nodes (EricData423full.m, scaled conjugate gradient)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hidden nodes 3'!$A$22:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hidden nodes 3'!$B$22:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-232E-45FE-A5FA-891AE0DFA408}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448087448"/>
+        <c:axId val="349567320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448087448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hidden Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349567320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="349567320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Classification Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448087448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AEB37F4-97CD-4EFD-A3AA-78B7709557F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5E0660-57FA-485A-A7FD-D88CD661A07B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,7 +2697,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20:G22"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,117 +2720,117 @@
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="S1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="S2" s="13" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="S3" s="13" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -839,7 +2896,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B5">
@@ -864,37 +2921,37 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="O5" s="12" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="S5" s="12" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="S5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
     </row>
     <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6">
         <v>2</v>
       </c>
@@ -917,27 +2974,27 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
     </row>
     <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7">
         <v>3</v>
       </c>
@@ -961,27 +3018,27 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
     </row>
     <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1001,44 +3058,44 @@
         <f>AVERAGE(H5:H7)</f>
         <v>53.133333333333333</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
     </row>
     <row r="9" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="S9" s="13" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="W9" s="13" t="s">
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="W9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B10">
@@ -1100,15 +3157,15 @@
       <c r="Y10" s="4">
         <v>7.013888888888889E-2</v>
       </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AB10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11">
         <v>2</v>
       </c>
@@ -1168,13 +3225,13 @@
       <c r="Y11" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12">
         <v>3</v>
       </c>
@@ -1234,13 +3291,13 @@
       <c r="Y12" s="4">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1296,14 +3353,14 @@
         <f>AVERAGE(O13,K13,G13)</f>
         <v>34.31111111111111</v>
       </c>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
     </row>
     <row r="14" spans="1:31" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:31" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B15">
@@ -1364,15 +3421,15 @@
       <c r="Y15" s="4">
         <v>0</v>
       </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AB15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
     </row>
     <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16">
         <v>2</v>
       </c>
@@ -1431,13 +3488,13 @@
       <c r="Y16" s="4">
         <v>0</v>
       </c>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
     </row>
     <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17">
         <v>3</v>
       </c>
@@ -1496,13 +3553,13 @@
       <c r="Y17" s="4">
         <v>0</v>
       </c>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
     </row>
     <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1554,14 +3611,14 @@
         <f>AVERAGE(X15:X17)</f>
         <v>33.466666666666669</v>
       </c>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
     </row>
     <row r="19" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B20">
@@ -1622,15 +3679,15 @@
       <c r="Y20" s="4">
         <v>0</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AB20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21">
         <v>2</v>
       </c>
@@ -1689,13 +3746,13 @@
       <c r="Y21" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
       <c r="B22">
         <v>3</v>
       </c>
@@ -1754,13 +3811,13 @@
       <c r="Y22" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1816,23 +3873,23 @@
         <f>AVERAGE(O23,K23,G23)</f>
         <v>37.699999999999996</v>
       </c>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="G25">
         <v>37.700000000000003</v>
       </c>
@@ -1879,21 +3936,21 @@
       <c r="Y25" s="4">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="AB25" s="12" t="s">
+      <c r="AB25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="17"/>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="G26">
         <v>45.7</v>
       </c>
@@ -1940,19 +3997,19 @@
       <c r="Y26" s="4">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="17"/>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="G27">
         <v>31.5</v>
       </c>
@@ -1999,19 +4056,19 @@
       <c r="Y27" s="4">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="G28" s="6">
         <f>AVERAGE(G25:G27)</f>
         <v>38.300000000000004</v>
@@ -2056,23 +4113,23 @@
         <f>AVERAGE(O28,K28,G28)</f>
         <v>37.44444444444445</v>
       </c>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="G30">
         <v>37</v>
       </c>
@@ -2119,21 +4176,21 @@
       <c r="Y30" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AB30" s="12" t="s">
+      <c r="AB30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="19"/>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="G31">
         <v>35.200000000000003</v>
       </c>
@@ -2180,19 +4237,19 @@
       <c r="Y31" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="19"/>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="G32">
         <v>30.2</v>
       </c>
@@ -2239,19 +4296,19 @@
       <c r="Y32" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
       <c r="G33" s="6">
         <f>AVERAGE(G30:G32)</f>
         <v>34.133333333333333</v>
@@ -2296,10 +4353,10 @@
         <f>AVERAGE(O33,K33,G33)</f>
         <v>35.122222222222227</v>
       </c>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="H34" s="6"/>
@@ -2316,7 +4373,7 @@
         <f>AVERAGE(D23,D13)</f>
         <v>36.36666666666666</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="14">
         <f>AVERAGE(G23,G28,G13)</f>
         <v>38.266666666666673</v>
       </c>
@@ -2324,7 +4381,7 @@
         <f>AVERAGE(H23,H28,H13)</f>
         <v>38.322222222222223</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="14">
         <f>AVERAGE(K23,K28,K33)</f>
         <v>36.166666666666664</v>
       </c>
@@ -2332,7 +4389,7 @@
         <f>AVERAGE(L23,L28,L33)</f>
         <v>38.94444444444445</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="14">
         <f>AVERAGE(O23,O28,O33)</f>
         <v>36.44444444444445</v>
       </c>
@@ -2340,7 +4397,7 @@
         <f>AVERAGE(P23,P28,P33)</f>
         <v>36.711111111111109</v>
       </c>
-      <c r="S35" s="18">
+      <c r="S35" s="13">
         <f>AVERAGE(S28,S13,S23)</f>
         <v>33.966666666666669</v>
       </c>
@@ -2348,7 +4405,7 @@
         <f>AVERAGE(T28,T13,T23)</f>
         <v>35.388888888888886</v>
       </c>
-      <c r="W35" s="18">
+      <c r="W35" s="13">
         <f>AVERAGE(W23,W28,W33)</f>
         <v>33.94444444444445</v>
       </c>
@@ -2376,44 +4433,35 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="O5:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="K5:M8"/>
-    <mergeCell ref="A39:D41"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:E28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="C30:E33"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W5:Y8"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="AB20:AE23"/>
+    <mergeCell ref="AB25:AE28"/>
+    <mergeCell ref="AB30:AE33"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S5:U8"/>
+    <mergeCell ref="AA5:AD8"/>
+    <mergeCell ref="AB10:AE13"/>
+    <mergeCell ref="AB15:AE18"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="C3:E3"/>
@@ -2429,14 +4477,23 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="AB20:AE23"/>
-    <mergeCell ref="AB25:AE28"/>
-    <mergeCell ref="AB30:AE33"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S5:U8"/>
-    <mergeCell ref="AA5:AD8"/>
-    <mergeCell ref="AB10:AE13"/>
-    <mergeCell ref="AB15:AE18"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W5:Y8"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="A39:D41"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:E28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="C30:E33"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="O5:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="K5:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2447,9 +4504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2467,93 +4524,91 @@
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="G1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="7"/>
-      <c r="O1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="O1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="13"/>
+      <c r="S1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="18"/>
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="K2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="O2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="13"/>
+      <c r="S2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="18"/>
       <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="O3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2608,7 +4663,7 @@
       <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:24" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -2621,7 +4676,7 @@
         <v>41.3</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6">
         <v>43.8</v>
@@ -2630,30 +4685,30 @@
         <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="O5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="S5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
+      <c r="K5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="O5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
     </row>
     <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6">
         <v>2</v>
       </c>
@@ -2664,7 +4719,7 @@
         <v>41.3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6">
         <v>38.299999999999997</v>
@@ -2673,23 +4728,23 @@
         <v>40.6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7">
         <v>3</v>
       </c>
@@ -2709,23 +4764,23 @@
         <v>42.2</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -2747,21 +4802,21 @@
       <c r="I8" s="4">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
     </row>
     <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9">
         <v>5</v>
       </c>
@@ -2783,21 +4838,21 @@
       <c r="I9" s="4">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10">
         <v>6</v>
       </c>
@@ -2817,23 +4872,23 @@
         <v>45</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11">
         <v>7</v>
       </c>
@@ -2855,21 +4910,21 @@
       <c r="I11" s="4">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12">
         <v>8</v>
       </c>
@@ -2889,23 +4944,23 @@
         <v>40.9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
     </row>
     <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3">
         <v>9</v>
       </c>
@@ -2925,23 +4980,23 @@
         <v>43.7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="17"/>
       <c r="B14">
         <v>10</v>
       </c>
@@ -2961,23 +5016,23 @@
         <v>43.4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
@@ -2997,18 +5052,18 @@
         <f>AVERAGE(H5:H14)</f>
         <v>42.099999999999994</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
@@ -3029,7 +5084,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B18">
@@ -3070,7 +5125,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="17"/>
       <c r="B19">
         <v>2</v>
       </c>
@@ -3109,7 +5164,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="17"/>
       <c r="B20">
         <v>3</v>
       </c>
@@ -3148,7 +5203,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3">
         <v>4</v>
       </c>
@@ -3187,7 +5242,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
       <c r="B22">
         <v>5</v>
       </c>
@@ -3226,7 +5281,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
       <c r="B23">
         <v>6</v>
       </c>
@@ -3265,7 +5320,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="17"/>
       <c r="B24">
         <v>7</v>
       </c>
@@ -3304,7 +5359,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="17"/>
       <c r="B25">
         <v>8</v>
       </c>
@@ -3343,7 +5398,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3">
         <v>9</v>
       </c>
@@ -3382,7 +5437,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="17"/>
       <c r="B27">
         <v>10</v>
       </c>
@@ -3421,7 +5476,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
@@ -3497,7 +5552,7 @@
       <c r="T30" s="6"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B31">
@@ -3538,7 +5593,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="17"/>
       <c r="B32">
         <v>2</v>
       </c>
@@ -3577,7 +5632,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="17"/>
       <c r="B33">
         <v>3</v>
       </c>
@@ -3616,7 +5671,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="3">
         <v>4</v>
       </c>
@@ -3655,7 +5710,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="17"/>
       <c r="B35">
         <v>5</v>
       </c>
@@ -3694,7 +5749,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="17"/>
       <c r="B36">
         <v>6</v>
       </c>
@@ -3733,7 +5788,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="17"/>
       <c r="B37">
         <v>7</v>
       </c>
@@ -3772,7 +5827,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="17"/>
       <c r="B38">
         <v>8</v>
       </c>
@@ -3811,7 +5866,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="3">
         <v>9</v>
       </c>
@@ -3850,7 +5905,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+      <c r="A40" s="17"/>
       <c r="B40">
         <v>10</v>
       </c>
@@ -3889,7 +5944,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
@@ -3966,7 +6021,7 @@
       <c r="T43" s="6"/>
     </row>
     <row r="44" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B44">
@@ -4007,7 +6062,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="17"/>
       <c r="B45">
         <v>2</v>
       </c>
@@ -4046,7 +6101,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="17"/>
       <c r="B46">
         <v>3</v>
       </c>
@@ -4085,7 +6140,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -4124,7 +6179,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="A48" s="17"/>
       <c r="B48">
         <v>5</v>
       </c>
@@ -4163,7 +6218,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+      <c r="A49" s="17"/>
       <c r="B49">
         <v>6</v>
       </c>
@@ -4202,7 +6257,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
+      <c r="A50" s="17"/>
       <c r="B50">
         <v>7</v>
       </c>
@@ -4241,7 +6296,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
+      <c r="A51" s="17"/>
       <c r="B51">
         <v>8</v>
       </c>
@@ -4280,7 +6335,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="3">
         <v>9</v>
       </c>
@@ -4319,7 +6374,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
+      <c r="A53" s="17"/>
       <c r="B53">
         <v>10</v>
       </c>
@@ -4358,7 +6413,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
@@ -4438,9 +6493,9 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="19">
+        <v>39</v>
+      </c>
+      <c r="C57" s="14">
         <f>AVERAGE(C54,C41,C28)</f>
         <v>35.32</v>
       </c>
@@ -4448,7 +6503,7 @@
         <f>AVERAGE(D54,D41,D28)</f>
         <v>39.316666666666663</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="14">
         <f>AVERAGE(G54,G41,G28)</f>
         <v>38.5</v>
       </c>
@@ -4456,44 +6511,52 @@
         <f>AVERAGE(H54,H41,H28)</f>
         <v>43.596666666666664</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="14">
         <f>AVERAGE(K54,K41,K28)</f>
         <v>38.273333333333333</v>
       </c>
       <c r="L57" s="6"/>
-      <c r="O57" s="18">
+      <c r="O57" s="13">
         <f>AVERAGE(O54,O41,O28)</f>
         <v>33.329999999999991</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="S57" s="18">
+      <c r="S57" s="13">
         <f>AVERAGE(S54,S41,S28)</f>
         <v>33.666666666666664</v>
       </c>
       <c r="T57" s="6"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="S5:U15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K5:M15"/>
+    <mergeCell ref="O5:Q15"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="V5:X15"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="S2:T2"/>
@@ -4510,14 +6573,6 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K5:M15"/>
-    <mergeCell ref="O5:Q15"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="S5:U15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4526,11 +6581,545 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" customWidth="1"/>
+    <col min="6" max="7" width="14.77734375" customWidth="1"/>
+    <col min="9" max="10" width="14.77734375" customWidth="1"/>
+    <col min="12" max="13" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="I1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="I3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G5" s="6">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M5" s="6">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F6" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G6" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="J6" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L6" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="M6" s="6">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G7" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="I7" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J7" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="L7" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="M7" s="6">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>31.1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I8" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="J8" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="L8" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="M8" s="6">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F9" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J9" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="L9" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="M9" s="6">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F10" s="6">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6">
+        <v>41</v>
+      </c>
+      <c r="I10" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="L10" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>27.8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="I11" s="6">
+        <v>34</v>
+      </c>
+      <c r="J11" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="L11" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="M11" s="6">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J12" s="6">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="L12" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D13" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="I13" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L13" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="M13" s="6">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D14" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I14" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="J14" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="L14" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <f>AVERAGE(C5:C14)</f>
+        <v>34.589999999999996</v>
+      </c>
+      <c r="D15" s="6">
+        <f>AVERAGE(D5:D14)</f>
+        <v>38.999999999999993</v>
+      </c>
+      <c r="F15" s="6">
+        <f>AVERAGE(F5:F14)</f>
+        <v>33.89</v>
+      </c>
+      <c r="G15" s="6">
+        <f>AVERAGE(G5:G14)</f>
+        <v>35.22</v>
+      </c>
+      <c r="I15" s="6">
+        <f>AVERAGE(I5:I14)</f>
+        <v>34.049999999999997</v>
+      </c>
+      <c r="J15" s="6">
+        <f>AVERAGE(J5:J14)</f>
+        <v>36.090000000000003</v>
+      </c>
+      <c r="L15" s="6">
+        <f>AVERAGE(L5:L14)</f>
+        <v>34.480000000000004</v>
+      </c>
+      <c r="M15" s="6">
+        <f>AVERAGE(M5:M14)</f>
+        <v>35.74444444444444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.P(C5:C14)</f>
+        <v>3.3777063223436108</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="F16" s="6">
+        <f>_xlfn.STDEV.P(F5:F14)</f>
+        <v>3.6236583724187157</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="I16" s="6">
+        <f>_xlfn.STDEV.P(I5:I14)</f>
+        <v>1.5525785004308155</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="L16" s="6">
+        <f>_xlfn.STDEV.P(L5:L14)</f>
+        <v>1.7764008556629336</v>
+      </c>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4543,16 +7132,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="13">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18">
         <v>10</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="13"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4575,7 +7164,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -4595,7 +7184,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="17"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -4613,7 +7202,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -4631,7 +7220,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -4649,7 +7238,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -4667,7 +7256,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -4685,7 +7274,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9">
         <v>7</v>
       </c>
@@ -4703,7 +7292,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10">
         <v>8</v>
       </c>
@@ -4721,7 +7310,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -4739,7 +7328,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -4757,7 +7346,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -4794,7 +7383,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B16">
@@ -4814,7 +7403,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17">
         <v>2</v>
       </c>
@@ -4832,7 +7421,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="17"/>
       <c r="B18">
         <v>3</v>
       </c>
@@ -4850,7 +7439,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3">
         <v>4</v>
       </c>
@@ -4868,7 +7457,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="17"/>
       <c r="B20">
         <v>5</v>
       </c>
@@ -4886,7 +7475,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21">
         <v>6</v>
       </c>
@@ -4904,7 +7493,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
       <c r="B22">
         <v>7</v>
       </c>
@@ -4922,7 +7511,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
       <c r="B23">
         <v>8</v>
       </c>
@@ -4940,7 +7529,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3">
         <v>9</v>
       </c>
@@ -4958,7 +7547,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="17"/>
       <c r="B25">
         <v>10</v>
       </c>
@@ -4976,7 +7565,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
@@ -5013,7 +7602,7 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B29">
@@ -5033,7 +7622,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="17"/>
       <c r="B30">
         <v>2</v>
       </c>
@@ -5051,7 +7640,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="17"/>
       <c r="B31">
         <v>3</v>
       </c>
@@ -5069,7 +7658,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="3">
         <v>4</v>
       </c>
@@ -5087,7 +7676,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="17"/>
       <c r="B33">
         <v>5</v>
       </c>
@@ -5105,7 +7694,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="17"/>
       <c r="B34">
         <v>6</v>
       </c>
@@ -5123,7 +7712,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="17"/>
       <c r="B35">
         <v>7</v>
       </c>
@@ -5141,7 +7730,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="17"/>
       <c r="B36">
         <v>8</v>
       </c>
@@ -5159,7 +7748,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="3">
         <v>9</v>
       </c>
@@ -5177,7 +7766,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="17"/>
       <c r="B38">
         <v>10</v>
       </c>
@@ -5195,7 +7784,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
@@ -5234,7 +7823,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="6">
         <f>AVERAGE(C39,C26,C13)</f>
@@ -5248,34 +7837,1744 @@
       <c r="G42" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A44:D46"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A16:A26"/>
     <mergeCell ref="A29:A39"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A44:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="6" max="7" width="14.77734375" customWidth="1"/>
+    <col min="9" max="10" width="14.77734375" customWidth="1"/>
+    <col min="12" max="13" width="14.77734375" customWidth="1"/>
+    <col min="15" max="16" width="14.77734375" customWidth="1"/>
+    <col min="18" max="19" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18">
+        <v>10</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="I1" s="18">
+        <v>15</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="L1" s="18">
+        <v>20</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="O1" s="18">
+        <v>25</v>
+      </c>
+      <c r="P1" s="18"/>
+      <c r="R1" s="18">
+        <v>50</v>
+      </c>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="J3" s="6">
+        <v>37</v>
+      </c>
+      <c r="L3" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="O3" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="P3" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="R3" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="S3" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F4" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="J4" s="6">
+        <v>38.4</v>
+      </c>
+      <c r="L4" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M4" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="O4" s="6">
+        <v>37</v>
+      </c>
+      <c r="P4" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="R4" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="S4" s="6">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F5" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I5" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J5" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="L5" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M5" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="O5" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P5" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="R5" s="6">
+        <v>38.5</v>
+      </c>
+      <c r="S5" s="6">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F6" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J6" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="M6" s="6">
+        <v>39</v>
+      </c>
+      <c r="O6" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="P6" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="R6" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="S6" s="6">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D7" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F7" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="G7" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="I7" s="6">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="L7" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M7" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="O7" s="6">
+        <v>37</v>
+      </c>
+      <c r="P7" s="6">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="R7" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F8" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G8" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I8" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J8" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>37</v>
+      </c>
+      <c r="M8" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O8" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="P8" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="R8" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S8" s="6">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G9" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I9" s="6">
+        <v>35</v>
+      </c>
+      <c r="J9" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M9" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="O9" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="R9" s="6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="S9" s="6">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F10" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G10" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J10" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="L10" s="6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="M10" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="P10" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="R10" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="S10" s="6">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F11" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G11" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I11" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="J11" s="6">
+        <v>38</v>
+      </c>
+      <c r="L11" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="M11" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="O11" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="P11" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="R11" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="S11" s="6">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F12" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G12" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I12" s="6">
+        <v>37</v>
+      </c>
+      <c r="J12" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="L12" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="M12" s="6">
+        <v>38.5</v>
+      </c>
+      <c r="O12" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="P12" s="6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="R12" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="S12" s="6">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>35.740000000000009</v>
+      </c>
+      <c r="D13" s="6">
+        <f>AVERAGE(D3:D12)</f>
+        <v>36.940000000000005</v>
+      </c>
+      <c r="F13" s="6">
+        <f>AVERAGE(F3:F12)</f>
+        <v>35.379999999999995</v>
+      </c>
+      <c r="G13" s="6">
+        <f>AVERAGE(G3:G12)</f>
+        <v>37.130000000000003</v>
+      </c>
+      <c r="I13" s="6">
+        <f>AVERAGE(I3:I12)</f>
+        <v>36.82</v>
+      </c>
+      <c r="J13" s="6">
+        <f>AVERAGE(J3:J12)</f>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="L13" s="6">
+        <f>AVERAGE(L3:L12)</f>
+        <v>37.119999999999997</v>
+      </c>
+      <c r="M13" s="6">
+        <f>AVERAGE(M3:M12)</f>
+        <v>37.380000000000003</v>
+      </c>
+      <c r="O13" s="6">
+        <f>AVERAGE(O3:O12)</f>
+        <v>37.83</v>
+      </c>
+      <c r="P13" s="6">
+        <f>AVERAGE(P3:P12)</f>
+        <v>38.11</v>
+      </c>
+      <c r="R13" s="6">
+        <f>AVERAGE(R3:R12)</f>
+        <v>36.820000000000007</v>
+      </c>
+      <c r="S13" s="6">
+        <f>AVERAGE(S3:S12)</f>
+        <v>37.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="6">
+        <f>_xlfn.STDEV.P(F3:F13)</f>
+        <v>2.365970875099308</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="I14" s="6">
+        <f>_xlfn.STDEV.P(I3:I13)</f>
+        <v>1.4108669159582174</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="L14" s="6">
+        <f>_xlfn.STDEV.P(L3:L13)</f>
+        <v>2.7215637216330411</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="O14" s="6">
+        <f>_xlfn.STDEV.P(O3:O13)</f>
+        <v>1.3504544689574955</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="R14" s="6">
+        <f>_xlfn.STDEV.P(R3:R13)</f>
+        <v>1.8838065911147239</v>
+      </c>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>C1</f>
+        <v>5</v>
+      </c>
+      <c r="B22" s="6">
+        <f>C13</f>
+        <v>35.740000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>F1</f>
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <f>F13</f>
+        <v>35.379999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>I1</f>
+        <v>15</v>
+      </c>
+      <c r="B24" s="6">
+        <f>I13</f>
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>L1</f>
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <f>L13</f>
+        <v>37.119999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>O1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <f>O13</f>
+        <v>37.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>R1</f>
+        <v>50</v>
+      </c>
+      <c r="B27" s="6">
+        <f>R13</f>
+        <v>36.820000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:D18"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="6" max="7" width="14.77734375" customWidth="1"/>
+    <col min="9" max="10" width="14.77734375" customWidth="1"/>
+    <col min="12" max="13" width="14.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="16" width="14.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="19" width="14.77734375" customWidth="1"/>
+    <col min="21" max="22" width="14.77734375" customWidth="1"/>
+    <col min="24" max="25" width="14.77734375" customWidth="1"/>
+    <col min="27" max="28" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18">
+        <v>10</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18">
+        <v>30</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="I1" s="18">
+        <v>50</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="L1" s="18">
+        <v>70</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="18">
+        <v>80</v>
+      </c>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="18">
+        <v>90</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="U1" s="18">
+        <v>110</v>
+      </c>
+      <c r="V1" s="18"/>
+      <c r="X1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="18"/>
+      <c r="AA1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="18"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D3" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F3" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G3" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I3" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J3" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="L3" s="6">
+        <v>37</v>
+      </c>
+      <c r="M3" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="P3" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="S3" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="V3" s="6">
+        <v>35.1</v>
+      </c>
+      <c r="X3" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D4" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G4" s="6">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="J4" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="M4" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="P4" s="6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="S4" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="U4" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="V4" s="6">
+        <v>38.4</v>
+      </c>
+      <c r="X4" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="G5" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I5" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J5" s="6">
+        <v>36</v>
+      </c>
+      <c r="L5" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M5" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="P5" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="S5" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="U5" s="6">
+        <v>31.2</v>
+      </c>
+      <c r="V5" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="J6" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="L6" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="M6" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="P6" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="S6" s="6">
+        <v>38</v>
+      </c>
+      <c r="U6" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="V6" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="X6" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G7" s="6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I7" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="M7" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="P7" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="S7" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="U7" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="V7" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="X7" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="I8" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="J8" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="L8" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="M8" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>33</v>
+      </c>
+      <c r="P8" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="S8" s="6">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="U8" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="V8" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="X8" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="G9" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I9" s="6">
+        <v>33</v>
+      </c>
+      <c r="J9" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M9" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="P9" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="S9" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="U9" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="V9" s="6">
+        <v>36</v>
+      </c>
+      <c r="X9" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="G10" s="6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I10" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J10" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="L10" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M10" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="P10" s="6">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="S10" s="6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="U10" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="V10" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="X10" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J11" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="L11" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="M11" s="6">
+        <v>37</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="P11" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="S11" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="U11" s="6">
+        <v>31.2</v>
+      </c>
+      <c r="V11" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="X11" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="G12" s="6">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="J12" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="L12" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M12" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>33</v>
+      </c>
+      <c r="P12" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="S12" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="U12" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="V12" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="X12" s="6">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>34.540000000000006</v>
+      </c>
+      <c r="D13" s="6">
+        <f>AVERAGE(D3:D12)</f>
+        <v>34.730000000000004</v>
+      </c>
+      <c r="F13" s="6">
+        <f>AVERAGE(F3:F12)</f>
+        <v>34.049999999999997</v>
+      </c>
+      <c r="G13" s="6">
+        <f>AVERAGE(G3:G12)</f>
+        <v>36.339999999999996</v>
+      </c>
+      <c r="I13" s="6">
+        <f>AVERAGE(I3:I12)</f>
+        <v>34.090000000000003</v>
+      </c>
+      <c r="J13" s="6">
+        <f>AVERAGE(J3:J12)</f>
+        <v>35.21</v>
+      </c>
+      <c r="L13" s="6">
+        <f>AVERAGE(L3:L12)</f>
+        <v>34.44</v>
+      </c>
+      <c r="M13" s="6">
+        <f>AVERAGE(M3:M12)</f>
+        <v>36.840000000000003</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <f>AVERAGE(O3:O12)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="P13" s="6">
+        <f>AVERAGE(P3:P12)</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6">
+        <f>AVERAGE(R3:R12)</f>
+        <v>34.36</v>
+      </c>
+      <c r="S13" s="6">
+        <f>AVERAGE(S3:S12)</f>
+        <v>36.440000000000005</v>
+      </c>
+      <c r="U13" s="6">
+        <f>AVERAGE(U3:U12)</f>
+        <v>32.970000000000006</v>
+      </c>
+      <c r="V13" s="6">
+        <f>AVERAGE(V3:V12)</f>
+        <v>36.489999999999995</v>
+      </c>
+      <c r="X13" s="6">
+        <f>AVERAGE(X3:X12)</f>
+        <v>34.25</v>
+      </c>
+      <c r="Y13" s="6">
+        <f>AVERAGE(Y3:Y12)</f>
+        <v>36.19</v>
+      </c>
+      <c r="AA13" s="6">
+        <f>AVERAGE(AA3:AA12)</f>
+        <v>33.22</v>
+      </c>
+      <c r="AB13" s="6">
+        <f>AVERAGE(AB3:AB12)</f>
+        <v>36.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6">
+        <f>_xlfn.STDEV.P(C3:C12)</f>
+        <v>2.0269188439599657</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="F14" s="6">
+        <f>_xlfn.STDEV.P(F3:F12)</f>
+        <v>3.0780675756064881</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="I14" s="6">
+        <f>_xlfn.STDEV.P(I3:I12)</f>
+        <v>2.188812463414807</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="L14" s="6">
+        <f>_xlfn.STDEV.P(L3:L12)</f>
+        <v>1.8725383841192673</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <f>_xlfn.STDEV.P(O3:O12)</f>
+        <v>1.8525657883055064</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6">
+        <f>_xlfn.STDEV.P(R3:R12)</f>
+        <v>3.0588233031674132</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="U14" s="6">
+        <f>_xlfn.STDEV.P(U3:U12)</f>
+        <v>2.7626255627572829</v>
+      </c>
+      <c r="V14" s="6"/>
+      <c r="X14" s="6">
+        <f>_xlfn.STDEV.P(X3:X12)</f>
+        <v>3.6743026549265339</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="AA14" s="6">
+        <f>_xlfn.STDEV.P(AA3:AA12)</f>
+        <v>1.483104851316992</v>
+      </c>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>C1</f>
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <f>C13</f>
+        <v>34.540000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>F1</f>
+        <v>30</v>
+      </c>
+      <c r="B23" s="6">
+        <f>F13</f>
+        <v>34.049999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>I1</f>
+        <v>50</v>
+      </c>
+      <c r="B24" s="6">
+        <f>I13</f>
+        <v>34.090000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>L1</f>
+        <v>70</v>
+      </c>
+      <c r="B25" s="6">
+        <f>L13</f>
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>O1</f>
+        <v>80</v>
+      </c>
+      <c r="B26" s="6">
+        <f>O13</f>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>R1</f>
+        <v>90</v>
+      </c>
+      <c r="B27" s="6">
+        <f>R13</f>
+        <v>34.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:D18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>